--- a/test/color_sensor_calibration_2.xlsx
+++ b/test/color_sensor_calibration_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\arqui1\practica2\ACE1-231S0778BG07PRA2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6644D2-564C-4021-AEA7-321FF7DD29D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755F2645-6E00-4448-9241-C276455C7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{423C162A-02BB-41E4-91AD-334F8C79EF7A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{423C162A-02BB-41E4-91AD-334F8C79EF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47610B20-4E28-4CEB-B6AA-F0B953702156}">
   <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
